--- a/rp/Excel/Eyelashes_睫毛.xlsx
+++ b/rp/Excel/Eyelashes_睫毛.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,53 +27,403 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>AssetId</t>
+  </si>
+  <si>
+    <t>SexType</t>
+  </si>
+  <si>
+    <t>0-Common
+1-Male
+2-FeMale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -80,45 +432,314 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -167,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -200,26 +821,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -252,23 +856,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,40 +997,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="str">
-        <v>Int</v>
-      </c>
-      <c r="B1" s="2" t="str">
-        <v>String</v>
-      </c>
-      <c r="C1" s="2" t="str">
-        <v>String</v>
-      </c>
-      <c r="D1" s="2" t="str">
-        <v>Int</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -462,18 +1043,18 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>Describe</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>AssetId</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>SexType</v>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -492,14 +1073,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="str">
-        <v>0-Common
-1-Male
-2-FeMale</v>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -518,11 +1097,11 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -540,18 +1119,16 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>睫毛</v>
-      </c>
-      <c r="C5" s="2">
-        <v>48048</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>531763</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -570,18 +1147,16 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>睫毛</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>48049</v>
+        <v>531762</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -600,18 +1175,16 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>睫毛</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>22747</v>
+        <v>461642</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -630,11 +1203,17 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>458214</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -652,11 +1231,17 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>457287</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -674,11 +1259,17 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1">
+        <v>399318</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -696,11 +1287,17 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>398607</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -718,11 +1315,17 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1">
+        <v>370302</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -740,11 +1343,17 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1">
+        <v>370301</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -762,11 +1371,17 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>370299</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -784,11 +1399,17 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1">
+        <v>370298</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -806,11 +1427,17 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1">
+        <v>370297</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -828,11 +1455,17 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>370296</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -850,11 +1483,17 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1">
+        <v>370295</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -872,11 +1511,17 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1">
+        <v>370294</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -894,11 +1539,17 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1">
+        <v>370293</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -916,11 +1567,17 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1">
+        <v>286895</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -938,11 +1595,17 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1">
+        <v>270028</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -960,11 +1623,17 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1">
+        <v>267293</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -982,11 +1651,17 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1">
+        <v>267292</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1004,11 +1679,17 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1">
+        <v>267290</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1026,11 +1707,17 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1">
+        <v>267287</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1048,11 +1735,17 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1">
+        <v>266471</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1070,11 +1763,17 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1">
+        <v>266470</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1092,11 +1791,17 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1">
+        <v>266469</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1114,11 +1819,17 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1">
+        <v>266370</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1136,11 +1847,17 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1">
+        <v>266368</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1158,11 +1875,17 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1">
+        <v>266367</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1180,11 +1903,17 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1">
+        <v>266353</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1202,11 +1931,17 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1">
+        <v>266352</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1224,11 +1959,17 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1">
+        <v>266351</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1246,11 +1987,17 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1">
+        <v>266350</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1268,11 +2015,17 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1">
+        <v>266349</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1290,11 +2043,17 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1">
+        <v>266348</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1312,11 +2071,17 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1">
+        <v>227072</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1334,11 +2099,17 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1">
+        <v>227071</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1356,11 +2127,17 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1">
+        <v>227070</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1378,11 +2155,17 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1">
+        <v>227069</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1400,11 +2183,17 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:20">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1">
+        <v>215412</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1422,11 +2211,17 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:20">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1">
+        <v>215411</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1444,11 +2239,17 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:20">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1">
+        <v>215410</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1466,11 +2267,17 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="1"/>
+    <row r="46" spans="1:20">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1">
+        <v>215409</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1488,11 +2295,17 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:20">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1">
+        <v>215408</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1510,11 +2323,17 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:20">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1">
+        <v>215407</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1532,11 +2351,17 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:20">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1">
+        <v>215406</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1554,11 +2379,17 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:20">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="1">
+        <v>215405</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1576,11 +2407,17 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="1"/>
+    <row r="51" spans="1:20">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1">
+        <v>215404</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1598,11 +2435,17 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:20">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="1">
+        <v>215403</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1620,11 +2463,17 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="1"/>
+    <row r="53" spans="1:20">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="C53" s="1">
+        <v>215402</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1642,11 +2491,17 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:20">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1">
+        <v>215401</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1664,11 +2519,17 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:20">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1">
+        <v>215400</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1686,11 +2547,17 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:20">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1">
+        <v>215399</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1708,11 +2575,17 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:20">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="1">
+        <v>215398</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1730,11 +2603,17 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:20">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1">
+        <v>215397</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1752,11 +2631,17 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:20">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="C59" s="1">
+        <v>215396</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1774,11 +2659,17 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:20">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="1">
+        <v>215395</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1796,11 +2687,17 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="1"/>
+    <row r="61" spans="1:20">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="C61" s="1">
+        <v>215394</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1818,11 +2715,17 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="1"/>
+    <row r="62" spans="1:20">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="1">
+        <v>215393</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1840,11 +2743,17 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:20">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="C63" s="1">
+        <v>215392</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1862,11 +2771,17 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="1"/>
+    <row r="64" spans="1:20">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1">
+        <v>215391</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1884,11 +2799,17 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="1"/>
+    <row r="65" spans="1:20">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1">
+        <v>215390</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1906,11 +2827,17 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="1"/>
+    <row r="66" spans="1:20">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="C66" s="1">
+        <v>215389</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -1928,11 +2855,17 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="1"/>
+    <row r="67" spans="1:20">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="C67" s="1">
+        <v>215388</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1950,11 +2883,17 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:20">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="C68" s="1">
+        <v>215387</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -1972,11 +2911,17 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:20">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="C69" s="1">
+        <v>215386</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -1994,11 +2939,17 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1"/>
+    <row r="70" spans="1:20">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="C70" s="1">
+        <v>215385</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2016,11 +2967,17 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="1"/>
+    <row r="71" spans="1:20">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="C71" s="1">
+        <v>215384</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2038,11 +2995,17 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1"/>
+    <row r="72" spans="1:20">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="C72" s="1">
+        <v>215383</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2060,11 +3023,17 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:20">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1">
+        <v>215382</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2082,11 +3051,17 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:20">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="C74" s="1">
+        <v>215381</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -2104,11 +3079,17 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:20">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="C75" s="1">
+        <v>215380</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -2126,11 +3107,17 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:20">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="C76" s="1">
+        <v>215379</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -2148,11 +3135,17 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
-      <c r="A77" s="1"/>
+    <row r="77" spans="1:20">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="C77" s="1">
+        <v>215378</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2170,11 +3163,17 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
-      <c r="A78" s="1"/>
+    <row r="78" spans="1:20">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="C78" s="1">
+        <v>215377</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2192,11 +3191,17 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
-      <c r="A79" s="1"/>
+    <row r="79" spans="1:20">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="C79" s="1">
+        <v>215376</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2214,11 +3219,17 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
-      <c r="A80" s="1"/>
+    <row r="80" spans="1:20">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="C80" s="1">
+        <v>215375</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -2236,11 +3247,17 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
-      <c r="A81" s="1"/>
+    <row r="81" spans="1:20">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="1">
+        <v>215374</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -2258,11 +3275,17 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="1"/>
+    <row r="82" spans="1:20">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="C82" s="1">
+        <v>215373</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -2280,11 +3303,17 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
-      <c r="A83" s="1"/>
+    <row r="83" spans="1:20">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="C83" s="1">
+        <v>215372</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -2302,11 +3331,17 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
-      <c r="A84" s="1"/>
+    <row r="84" spans="1:20">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="C84" s="1">
+        <v>215371</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -2324,11 +3359,17 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
-      <c r="A85" s="1"/>
+    <row r="85" spans="1:20">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="1">
+        <v>215370</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -2346,11 +3387,17 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
-      <c r="A86" s="1"/>
+    <row r="86" spans="1:20">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="C86" s="1">
+        <v>215369</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -2368,11 +3415,17 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
-      <c r="A87" s="1"/>
+    <row r="87" spans="1:20">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="C87" s="1">
+        <v>215368</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -2390,11 +3443,17 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
-      <c r="A88" s="1"/>
+    <row r="88" spans="1:20">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="C88" s="1">
+        <v>107622</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2412,11 +3471,17 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
-      <c r="A89" s="1"/>
+    <row r="89" spans="1:20">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="C89" s="1">
+        <v>101141</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -2434,11 +3499,17 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
-      <c r="A90" s="1"/>
+    <row r="90" spans="1:20">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="C90" s="1">
+        <v>77467</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -2456,11 +3527,17 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1"/>
+    <row r="91" spans="1:20">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="C91" s="1">
+        <v>77466</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -2478,11 +3555,17 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
-      <c r="A92" s="1"/>
+    <row r="92" spans="1:20">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="C92" s="1">
+        <v>77456</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -2500,11 +3583,17 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
-      <c r="A93" s="1"/>
+    <row r="93" spans="1:20">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="C93" s="1">
+        <v>77455</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -2522,11 +3611,17 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
-      <c r="A94" s="1"/>
+    <row r="94" spans="1:20">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="C94" s="1">
+        <v>77454</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -2544,11 +3639,17 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:20">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="C95" s="1">
+        <v>77453</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -2566,11 +3667,17 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:20">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="C96" s="1">
+        <v>77452</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -2588,11 +3695,17 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:20">
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="C97" s="1">
+        <v>77451</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -2610,11 +3723,17 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
-      <c r="A98" s="1"/>
+    <row r="98" spans="1:20">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="C98" s="1">
+        <v>77450</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -2632,11 +3751,17 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
-      <c r="A99" s="1"/>
+    <row r="99" spans="1:20">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="C99" s="1">
+        <v>77449</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -2654,11 +3779,17 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1"/>
+    <row r="100" spans="1:20">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="C100" s="1">
+        <v>77448</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -2676,11 +3807,17 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
-      <c r="A101" s="1"/>
+    <row r="101" spans="1:20">
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="C101" s="1">
+        <v>68982</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -2698,11 +3835,17 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
-      <c r="A102" s="1"/>
+    <row r="102" spans="1:20">
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="C102" s="1">
+        <v>68981</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -2720,11 +3863,17 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:20">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="C103" s="1">
+        <v>48067</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -2742,11 +3891,17 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
-      <c r="A104" s="1"/>
+    <row r="104" spans="1:20">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="C104" s="1">
+        <v>48066</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -2764,11 +3919,17 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
-      <c r="A105" s="1"/>
+    <row r="105" spans="1:20">
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="C105" s="1">
+        <v>48065</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2786,11 +3947,17 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
-      <c r="A106" s="1"/>
+    <row r="106" spans="1:20">
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="C106" s="1">
+        <v>48064</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -2808,11 +3975,17 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
-      <c r="A107" s="1"/>
+    <row r="107" spans="1:20">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="C107" s="1">
+        <v>48063</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -2830,11 +4003,17 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
-      <c r="A108" s="1"/>
+    <row r="108" spans="1:20">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="C108" s="1">
+        <v>48062</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -2852,11 +4031,17 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
-      <c r="A109" s="1"/>
+    <row r="109" spans="1:20">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="C109" s="1">
+        <v>48061</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -2874,11 +4059,17 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
-      <c r="A110" s="1"/>
+    <row r="110" spans="1:20">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="C110" s="1">
+        <v>48060</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -2896,11 +4087,17 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:20">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="C111" s="1">
+        <v>48059</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -2918,11 +4115,17 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
-      <c r="A112" s="1"/>
+    <row r="112" spans="1:20">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="C112" s="1">
+        <v>48058</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -2940,11 +4143,17 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
-      <c r="A113" s="1"/>
+    <row r="113" spans="1:20">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="C113" s="1">
+        <v>48057</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -2962,11 +4171,17 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
-      <c r="A114" s="1"/>
+    <row r="114" spans="1:20">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="C114" s="1">
+        <v>48056</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -2984,11 +4199,17 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
-      <c r="A115" s="1"/>
+    <row r="115" spans="1:20">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="C115" s="1">
+        <v>48055</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -3006,11 +4227,17 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
-      <c r="A116" s="1"/>
+    <row r="116" spans="1:20">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="C116" s="1">
+        <v>48054</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -3028,11 +4255,17 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
-      <c r="A117" s="1"/>
+    <row r="117" spans="1:20">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="C117" s="1">
+        <v>48053</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -3050,11 +4283,17 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
-      <c r="A118" s="1"/>
+    <row r="118" spans="1:20">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="C118" s="1">
+        <v>48052</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -3072,11 +4311,17 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
-      <c r="A119" s="1"/>
+    <row r="119" spans="1:20">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="C119" s="1">
+        <v>48051</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -3094,11 +4339,17 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
-      <c r="A120" s="1"/>
+    <row r="120" spans="1:20">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="C120" s="1">
+        <v>48050</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -3116,11 +4367,17 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
-      <c r="A121" s="1"/>
+    <row r="121" spans="1:20">
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="C121" s="1">
+        <v>48049</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -3138,11 +4395,17 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
-      <c r="A122" s="1"/>
+    <row r="122" spans="1:20">
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="C122" s="1">
+        <v>48048</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -3160,11 +4423,17 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
-      <c r="A123" s="1"/>
+    <row r="123" spans="1:20">
+      <c r="A123" s="1">
+        <v>119</v>
+      </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="C123" s="1">
+        <v>32096</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -3182,11 +4451,17 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
-      <c r="A124" s="1"/>
+    <row r="124" spans="1:20">
+      <c r="A124" s="1">
+        <v>120</v>
+      </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="C124" s="1">
+        <v>22747</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -3204,7 +4479,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3226,7 +4501,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3248,7 +4523,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3270,7 +4545,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3292,7 +4567,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3314,7 +4589,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3336,7 +4611,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3358,7 +4633,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3380,7 +4655,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3402,7 +4677,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3424,7 +4699,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3446,7 +4721,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3468,7 +4743,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3490,7 +4765,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3512,7 +4787,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3534,7 +4809,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3556,7 +4831,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3578,7 +4853,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3600,7 +4875,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3622,7 +4897,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3644,7 +4919,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3666,7 +4941,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3688,7 +4963,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3710,7 +4985,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3732,7 +5007,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3754,7 +5029,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3776,7 +5051,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3798,7 +5073,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3820,7 +5095,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3842,7 +5117,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3864,7 +5139,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3886,7 +5161,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3908,7 +5183,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3930,7 +5205,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3952,7 +5227,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3974,7 +5249,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3996,7 +5271,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4018,7 +5293,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4040,7 +5315,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4062,7 +5337,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4084,7 +5359,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4106,7 +5381,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4128,7 +5403,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4150,7 +5425,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4172,7 +5447,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4194,7 +5469,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4216,7 +5491,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4238,7 +5513,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4260,7 +5535,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4282,7 +5557,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4304,7 +5579,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4326,7 +5601,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4348,7 +5623,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4370,7 +5645,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4392,7 +5667,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4414,7 +5689,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4436,7 +5711,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4458,7 +5733,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4480,7 +5755,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4502,7 +5777,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4524,7 +5799,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4546,7 +5821,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4568,7 +5843,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4590,7 +5865,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4612,7 +5887,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4634,7 +5909,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4656,7 +5931,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4678,7 +5953,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4700,7 +5975,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4722,7 +5997,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4744,7 +6019,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4766,7 +6041,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4788,7 +6063,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4810,7 +6085,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4832,7 +6107,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4854,7 +6129,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4877,7 +6152,8 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>